--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Bmp4-Bmpr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.351570000000001</v>
+        <v>8.350541</v>
       </c>
       <c r="H2">
-        <v>25.05471</v>
+        <v>25.051623</v>
       </c>
       <c r="I2">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="J2">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N2">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P2">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q2">
-        <v>364.9281120436434</v>
+        <v>386.5566999313696</v>
       </c>
       <c r="R2">
-        <v>3284.353008392789</v>
+        <v>3479.010299382327</v>
       </c>
       <c r="S2">
-        <v>0.1221368507587753</v>
+        <v>0.09673283743530428</v>
       </c>
       <c r="T2">
-        <v>0.1221368507587753</v>
+        <v>0.09673283743530428</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.351570000000001</v>
+        <v>8.350541</v>
       </c>
       <c r="H3">
-        <v>25.05471</v>
+        <v>25.051623</v>
       </c>
       <c r="I3">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="J3">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N3">
         <v>140.44867</v>
       </c>
       <c r="O3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P3">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q3">
-        <v>390.9889663039668</v>
+        <v>390.9407924101566</v>
       </c>
       <c r="R3">
-        <v>3518.9006967357</v>
+        <v>3518.46713169141</v>
       </c>
       <c r="S3">
-        <v>0.1308590910093665</v>
+        <v>0.09782992281793285</v>
       </c>
       <c r="T3">
-        <v>0.1308590910093665</v>
+        <v>0.09782992281793285</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.351570000000001</v>
+        <v>8.350541</v>
       </c>
       <c r="H4">
-        <v>25.05471</v>
+        <v>25.051623</v>
       </c>
       <c r="I4">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="J4">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N4">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P4">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q4">
-        <v>177.4725606525667</v>
+        <v>321.7917911576356</v>
       </c>
       <c r="R4">
-        <v>1597.2530458731</v>
+        <v>2896.126120418721</v>
       </c>
       <c r="S4">
-        <v>0.05939783463875187</v>
+        <v>0.08052591774400358</v>
       </c>
       <c r="T4">
-        <v>0.05939783463875187</v>
+        <v>0.08052591774400358</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.351570000000001</v>
+        <v>8.350541</v>
       </c>
       <c r="H5">
-        <v>25.05471</v>
+        <v>25.051623</v>
       </c>
       <c r="I5">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="J5">
-        <v>0.3629556103554933</v>
+        <v>0.3086892463293835</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N5">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P5">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q5">
-        <v>151.0718058448134</v>
+        <v>134.2721371011003</v>
       </c>
       <c r="R5">
-        <v>1359.64625260332</v>
+        <v>1208.449233909903</v>
       </c>
       <c r="S5">
-        <v>0.05056183394859962</v>
+        <v>0.03360056833214285</v>
       </c>
       <c r="T5">
-        <v>0.05056183394859962</v>
+        <v>0.03360056833214285</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>33.650088</v>
       </c>
       <c r="I6">
-        <v>0.4874727437897329</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="J6">
-        <v>0.487472743789733</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N6">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O6">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P6">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q6">
-        <v>490.1219405031013</v>
+        <v>519.2345010812346</v>
       </c>
       <c r="R6">
-        <v>4411.097464527911</v>
+        <v>4673.110509731112</v>
       </c>
       <c r="S6">
-        <v>0.1640376510474739</v>
+        <v>0.1299344354730104</v>
       </c>
       <c r="T6">
-        <v>0.1640376510474739</v>
+        <v>0.1299344354730104</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>33.650088</v>
       </c>
       <c r="I7">
-        <v>0.4874727437897329</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="J7">
-        <v>0.487472743789733</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N7">
         <v>140.44867</v>
       </c>
       <c r="O7">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P7">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q7">
-        <v>525.1233449981067</v>
+        <v>525.1233449981066</v>
       </c>
       <c r="R7">
-        <v>4726.11010498296</v>
+        <v>4726.110104982959</v>
       </c>
       <c r="S7">
-        <v>0.1757521810495987</v>
+        <v>0.1314080733155152</v>
       </c>
       <c r="T7">
-        <v>0.1757521810495987</v>
+        <v>0.1314080733155152</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>33.650088</v>
       </c>
       <c r="I8">
-        <v>0.4874727437897329</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="J8">
-        <v>0.487472743789733</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N8">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O8">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P8">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q8">
-        <v>238.3570707281867</v>
+        <v>432.2403418785306</v>
       </c>
       <c r="R8">
-        <v>2145.21363655368</v>
+        <v>3890.163076906776</v>
       </c>
       <c r="S8">
-        <v>0.07977511464325263</v>
+        <v>0.1081648170406557</v>
       </c>
       <c r="T8">
-        <v>0.07977511464325264</v>
+        <v>0.1081648170406557</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>33.650088</v>
       </c>
       <c r="I9">
-        <v>0.4874727437897329</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="J9">
-        <v>0.487472743789733</v>
+        <v>0.4146406124520329</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N9">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O9">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P9">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q9">
-        <v>202.8991579226773</v>
+        <v>180.3583436250853</v>
       </c>
       <c r="R9">
-        <v>1826.092421304096</v>
+        <v>1623.225092625768</v>
       </c>
       <c r="S9">
-        <v>0.06790779704940765</v>
+        <v>0.04513328662285155</v>
       </c>
       <c r="T9">
-        <v>0.06790779704940766</v>
+        <v>0.04513328662285155</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.441627666666667</v>
+        <v>7.484372666666666</v>
       </c>
       <c r="H10">
-        <v>10.324883</v>
+        <v>22.453118</v>
       </c>
       <c r="I10">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="J10">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>43.69574966666666</v>
+        <v>46.29121633333333</v>
       </c>
       <c r="N10">
-        <v>131.087249</v>
+        <v>138.873649</v>
       </c>
       <c r="O10">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="P10">
-        <v>0.3365063034544351</v>
+        <v>0.3133663986859022</v>
       </c>
       <c r="Q10">
-        <v>150.3845009685408</v>
+        <v>346.4607142319535</v>
       </c>
       <c r="R10">
-        <v>1353.460508716867</v>
+        <v>3118.146428087582</v>
       </c>
       <c r="S10">
-        <v>0.05033180164818577</v>
+        <v>0.08669912577758752</v>
       </c>
       <c r="T10">
-        <v>0.05033180164818577</v>
+        <v>0.08669912577758752</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.441627666666667</v>
+        <v>7.484372666666666</v>
       </c>
       <c r="H11">
-        <v>10.324883</v>
+        <v>22.453118</v>
       </c>
       <c r="I11">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="J11">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.81622333333334</v>
+        <v>46.81622333333333</v>
       </c>
       <c r="N11">
         <v>140.44867</v>
       </c>
       <c r="O11">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="P11">
-        <v>0.3605374521727267</v>
+        <v>0.3169204109998198</v>
       </c>
       <c r="Q11">
-        <v>161.1240094728456</v>
+        <v>350.3900622725622</v>
       </c>
       <c r="R11">
-        <v>1450.11608525561</v>
+        <v>3153.51056045306</v>
       </c>
       <c r="S11">
-        <v>0.05392618011376149</v>
+        <v>0.08768241486637168</v>
       </c>
       <c r="T11">
-        <v>0.05392618011376149</v>
+        <v>0.08768241486637168</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.441627666666667</v>
+        <v>7.484372666666666</v>
       </c>
       <c r="H12">
-        <v>10.324883</v>
+        <v>22.453118</v>
       </c>
       <c r="I12">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="J12">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>21.25020333333334</v>
+        <v>38.53544233333333</v>
       </c>
       <c r="N12">
-        <v>63.75061</v>
+        <v>115.606327</v>
       </c>
       <c r="O12">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="P12">
-        <v>0.1636504105297484</v>
+        <v>0.2608640200510233</v>
       </c>
       <c r="Q12">
-        <v>73.13528771429223</v>
+        <v>288.4136112975095</v>
       </c>
       <c r="R12">
-        <v>658.21758942863</v>
+        <v>2595.722501677586</v>
       </c>
       <c r="S12">
-        <v>0.02447746124774385</v>
+        <v>0.07217328526636405</v>
       </c>
       <c r="T12">
-        <v>0.02447746124774385</v>
+        <v>0.07217328526636405</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.441627666666667</v>
+        <v>7.484372666666666</v>
       </c>
       <c r="H13">
-        <v>10.324883</v>
+        <v>22.453118</v>
       </c>
       <c r="I13">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="J13">
-        <v>0.1495716458547737</v>
+        <v>0.2766701412185836</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.08903066666667</v>
+        <v>16.07945366666667</v>
       </c>
       <c r="N13">
-        <v>54.26709200000001</v>
+        <v>48.238361</v>
       </c>
       <c r="O13">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="P13">
-        <v>0.1393058338430899</v>
+        <v>0.1088491702632547</v>
       </c>
       <c r="Q13">
-        <v>62.25570840558179</v>
+        <v>120.3446235177331</v>
       </c>
       <c r="R13">
-        <v>560.3013756502361</v>
+        <v>1083.101611659598</v>
       </c>
       <c r="S13">
-        <v>0.02083620284508259</v>
+        <v>0.03011531530826033</v>
       </c>
       <c r="T13">
-        <v>0.02083620284508259</v>
+        <v>0.03011531530826033</v>
       </c>
     </row>
   </sheetData>
